--- a/BusinessAnalysis/ProductBacklog.xlsx
+++ b/BusinessAnalysis/ProductBacklog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="273">
   <si>
     <t>As a</t>
   </si>
@@ -525,9 +525,6 @@
     <t>I must be able to see the booking calander of each bike, including it's past, present and future bookings.</t>
   </si>
   <si>
-    <t>download and open the Micro2Move app on my mobile device</t>
-  </si>
-  <si>
     <t>I can update each of my bikes on the Micro2Move app</t>
   </si>
   <si>
@@ -699,9 +696,6 @@
     <t>unlogged-in owner/ renter</t>
   </si>
   <si>
-    <t>If my credentials are invalid I must see respective error messages</t>
-  </si>
-  <si>
     <t>I must be able to click my selfie holding the same photo ID in my hand (without dark glasses or hats on)</t>
   </si>
   <si>
@@ -724,7 +718,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">I must see the splash screen with Micro2Move's Branding: </t>
+      <t xml:space="preserve">press the </t>
     </r>
     <r>
       <rPr>
@@ -735,17 +729,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Logo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
+      <t>List a Bike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
     </r>
     <r>
       <rPr>
@@ -756,17 +750,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Tagline</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
+      <t>Rent a Bike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button on landing screen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I must see the </t>
     </r>
     <r>
       <rPr>
@@ -777,17 +776,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Brand Values</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
+      <t xml:space="preserve">Login </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">press the </t>
     </r>
     <r>
       <rPr>
@@ -798,17 +802,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Carousel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of featured images and a </t>
+      <t>New Use? Register Now</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> secondary button on the </t>
     </r>
     <r>
       <rPr>
@@ -819,17 +823,142 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Get Started</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button.</t>
+      <t xml:space="preserve">Login </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can visit the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User Registrarion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I must be able to enter my </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Full Name (as displayed on my government Id), Birth date, Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I must be able to visit details </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Terms and Conditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> link and navigate back by clicking </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I must be able to check </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I accept Terms and Conditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> radio button</t>
     </r>
   </si>
   <si>
@@ -845,22 +974,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Get Started</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button on splash screen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I must be able to view the landing page with Micro2Move branding, </t>
+      <t>Continue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button in the </t>
     </r>
     <r>
       <rPr>
@@ -871,17 +995,46 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Rent a Bike</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button, </t>
+      <t>User Registrarion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <t>User Story #</t>
+  </si>
+  <si>
+    <t>Reference Doc</t>
+  </si>
+  <si>
+    <t>Mockup</t>
+  </si>
+  <si>
+    <t>0010Splash.png</t>
+  </si>
+  <si>
+    <t>0020Landing.png</t>
+  </si>
+  <si>
+    <t>0031UserRegistration.png</t>
+  </si>
+  <si>
+    <t>0040RegTnC.png</t>
+  </si>
+  <si>
+    <t>0032UserRegImageUpload.png</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If my credentials are valid and I have started from the </t>
     </r>
     <r>
       <rPr>
@@ -902,7 +1055,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> button, </t>
+      <t xml:space="preserve"> button, I must be logged in into my account in Micro2Move app and subsequently landing on the </t>
     </r>
     <r>
       <rPr>
@@ -913,484 +1066,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Explore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">press the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>List a Bike</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rent a Bike</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button on landing screen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I must see the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Login </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">enter my </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Email</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Password </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">and press </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Continue </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">press the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>New Use? Register Now</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> secondary button on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Login </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I can visit the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User Registrarion</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I must be able to enter my </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Full Name (as displayed on my government Id), Birth date, Email</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I must be able to visit details </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Terms and Conditions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> link and navigate back by clicking </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I must be able to check </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I accept Terms and Conditions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> radio button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">press the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Continue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User Registrarion</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page</t>
-    </r>
-  </si>
-  <si>
-    <t>User Story #</t>
-  </si>
-  <si>
-    <t>Reference Doc</t>
-  </si>
-  <si>
-    <t>Mockup</t>
-  </si>
-  <si>
-    <t>0010Splash.png</t>
-  </si>
-  <si>
-    <t>0020Landing.png</t>
-  </si>
-  <si>
-    <t>0031UserRegistration.png</t>
-  </si>
-  <si>
-    <t>0040RegTnC.png</t>
-  </si>
-  <si>
-    <t>0032UserRegImageUpload.png</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If my registration details are valid and I have started from the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rent a Bike</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button, I must be registered into Micro2Move app and subsequently landing on the (blank) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>My Bike Rentals</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Bike Renter' Home) page (with a personalized welcome note on top)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If my registration details are valid and I have started from the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>List a Bike</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button, I must be registered into Micro2Move app and subsequently landing on the (blank) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>My Bikes Listing</t>
     </r>
     <r>
@@ -1403,103 +1078,6 @@
       </rPr>
       <t xml:space="preserve"> (Bike Owner's Home) page (with a personalized welcome note on top)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If my credentials are valid and I have started from the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rent a Bike</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button, I must be logged in into my account in Micro2Move app and subsequently landing on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>My Bike Rentals</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Bike Renter' Home) page (with a personalized welcome note on top)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If my credentials are valid and I have started from the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>List a Bike</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button, I must be logged in into my account in Micro2Move app and subsequently landing on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>My Bikes Listing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Bike Owner's Home) page (with a personalized welcome note on top)</t>
-    </r>
-  </si>
-  <si>
-    <t>Marketplace</t>
   </si>
   <si>
     <r>
@@ -1757,13 +1335,382 @@
       </rPr>
       <t xml:space="preserve"> for renting with my entered details</t>
     </r>
+  </si>
+  <si>
+    <t>download and open the Micro2Move app on my mobile (iOs/ Android) device</t>
+  </si>
+  <si>
+    <t>Open the Micro2Move app on my mobile (iOs/ Android) device</t>
+  </si>
+  <si>
+    <t>I can  view the landing page of the Micro2Move app</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I must see the splash screen (for 3.0seconds) with Micro2Move's Branding: 
+# </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Logo
+# Tagline
+# Brand Values
+# Carousel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of featured images</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I must be able to view the landing page with Micro2Move branding:
+# </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rent a Bike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (primary) button
+# </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List a Bike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (primary) button
+# </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Explore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> link</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">enter my </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Password </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and press </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Continue </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">button on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> screen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If my credentials are invalid I must see respective error messages on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> screen itself</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If my registration details are valid and I have started from the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List a Bike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button, I must be registered and logged in into Micro2Move app and subsequently landing on the (blank) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>My Bikes Listing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Bike Owner's Home) page (with a personalized welcome note on top)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If my registration details are valid and I have started from the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rent a Bike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button, I must be registered and logged in into Micro2Move app and subsequently landing on the (blank) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>My Bike Bookings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Bike Renter's Home) page (with a personalized welcome note on top)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If my credentials are valid and I have started from the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rent a Bike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button, I must be logged in into my account in Micro2Move app and subsequently landing on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>My Bike Bookings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Bike Renter's Home) page (with a personalized welcome note on top)</t>
+    </r>
+  </si>
+  <si>
+    <t>Marketplace - Listing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1804,13 +1751,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1944,12 +1884,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1964,6 +1898,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2257,10 +2197,10 @@
   <dimension ref="A1:I319"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2274,99 +2214,100 @@
     <col min="7" max="7" width="40.46484375" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.9296875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1328125" style="1"/>
+    <col min="10" max="10" width="19.3984375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>247</v>
+      <c r="H1" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>233</v>
+      <c r="B3" s="14" t="s">
+        <v>231</v>
       </c>
       <c r="C3" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="11" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9">
         <v>1.2</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>175</v>
+        <v>264</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
@@ -2376,39 +2317,39 @@
         <v>1.3</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="11" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9">
         <v>1.4</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -2421,12 +2362,12 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2434,7 +2375,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -2446,20 +2387,20 @@
         <v>1.5</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="11" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
@@ -2470,11 +2411,11 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="11" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
@@ -2485,11 +2426,11 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="11" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
@@ -2500,11 +2441,11 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="11" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
@@ -2515,11 +2456,11 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="11" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
@@ -2530,11 +2471,11 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="11" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
@@ -2544,16 +2485,16 @@
         <v>1.6</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -2566,7 +2507,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -2579,166 +2520,166 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A18" s="14">
+      <c r="A18" s="12">
         <v>2</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2.1</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" s="6" customFormat="1" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="G27" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C18" s="14">
-        <v>2.1</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-    </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-    </row>
-    <row r="27" spans="1:9" s="6" customFormat="1" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
@@ -2750,10 +2691,10 @@
         <v>4</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>164</v>
@@ -2767,7 +2708,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
@@ -2789,7 +2730,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
@@ -2802,13 +2743,13 @@
         <v>7</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="I32" s="6"/>
     </row>
@@ -2820,7 +2761,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I33" s="6"/>
     </row>
@@ -2832,7 +2773,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I34" s="6"/>
     </row>
@@ -2846,13 +2787,13 @@
         <v>7</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="I35" s="6"/>
     </row>
@@ -2864,7 +2805,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I36" s="6"/>
     </row>
@@ -2876,7 +2817,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I37" s="6"/>
     </row>
@@ -2890,13 +2831,13 @@
         <v>7</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="I38" s="6"/>
     </row>
@@ -2908,7 +2849,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I39" s="6"/>
     </row>
@@ -2920,7 +2861,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I40" s="6"/>
     </row>
@@ -2932,7 +2873,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I41" s="6"/>
     </row>
@@ -2944,13 +2885,13 @@
         <v>7</v>
       </c>
       <c r="E42" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="I42" s="6"/>
     </row>
@@ -2962,7 +2903,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I43" s="6"/>
     </row>
@@ -2974,7 +2915,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I44" s="6"/>
     </row>
@@ -2986,13 +2927,13 @@
         <v>7</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="I45" s="6"/>
     </row>
@@ -3004,7 +2945,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I46" s="6"/>
     </row>
@@ -3016,7 +2957,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I47" s="6"/>
     </row>
@@ -3028,13 +2969,13 @@
         <v>7</v>
       </c>
       <c r="E48" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="I48" s="6"/>
     </row>
@@ -3046,7 +2987,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I49" s="6"/>
     </row>
@@ -3058,7 +2999,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I50" s="6"/>
     </row>
@@ -3070,13 +3011,13 @@
         <v>7</v>
       </c>
       <c r="E51" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="I51" s="6"/>
     </row>
@@ -3088,7 +3029,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I52" s="6"/>
     </row>
@@ -3100,7 +3041,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I53" s="6"/>
     </row>
@@ -3112,13 +3053,13 @@
         <v>7</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="I54" s="6"/>
     </row>
@@ -3130,7 +3071,7 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I55" s="6"/>
     </row>
@@ -3142,7 +3083,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I56" s="6"/>
     </row>
@@ -3154,13 +3095,13 @@
         <v>7</v>
       </c>
       <c r="E57" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="I57" s="6"/>
     </row>
@@ -3172,7 +3113,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I58" s="6"/>
     </row>
@@ -3184,7 +3125,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I59" s="6"/>
     </row>

--- a/BusinessAnalysis/ProductBacklog.xlsx
+++ b/BusinessAnalysis/ProductBacklog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="276">
   <si>
     <t>As a</t>
   </si>
@@ -1656,6 +1656,15 @@
     </r>
   </si>
   <si>
+    <t>Marketplace - Listing</t>
+  </si>
+  <si>
+    <t>0052OwnerBikesList.png</t>
+  </si>
+  <si>
+    <t>0032LoginErrors.png</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">If my credentials are valid and I have started from the </t>
     </r>
@@ -1689,7 +1698,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>My Bike Bookings</t>
+      <t>Bike Booking</t>
     </r>
     <r>
       <rPr>
@@ -1703,7 +1712,7 @@
     </r>
   </si>
   <si>
-    <t>Marketplace - Listing</t>
+    <t>0060RenterFilter.png</t>
   </si>
 </sst>
 </file>
@@ -2197,10 +2206,10 @@
   <dimension ref="A1:I319"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2349,10 +2358,12 @@
         <v>227</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="I6" s="11" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
@@ -2365,7 +2376,9 @@
         <v>248</v>
       </c>
       <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="I7" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="9"/>
@@ -2378,7 +2391,9 @@
         <v>268</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="I8" s="11" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="9"/>
@@ -2530,7 +2545,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C18" s="12">
         <v>2.1</v>
@@ -4388,8 +4403,11 @@
     <hyperlink ref="I10" r:id="rId6" display="..\RefDocs\0040RegTnC.png"/>
     <hyperlink ref="I13" r:id="rId7" display="..\RefDocs\0032UserRegImageUpload.png"/>
     <hyperlink ref="I14" r:id="rId8" display="..\RefDocs\0032UserRegImageUpload.png"/>
+    <hyperlink ref="I7" r:id="rId9" display="..\RefDocs\0052OwnerBikesList.png"/>
+    <hyperlink ref="I8" r:id="rId10" display="..\RefDocs\0032LoginErrors.png"/>
+    <hyperlink ref="I6" r:id="rId11" display="..\RefDocs\0060RenterFilter.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/BusinessAnalysis/ProductBacklog.xlsx
+++ b/BusinessAnalysis/ProductBacklog.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="ProductBacklog" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="280">
   <si>
     <t>As a</t>
   </si>
@@ -510,9 +510,6 @@
     <t>Price comparison with other apps of similar ebike rentals</t>
   </si>
   <si>
-    <t>I should be able to upload one main image for each of my bikes</t>
-  </si>
-  <si>
     <t>I must be able to view the list of bikes that I have put on rent along with current status of each(rented, waiting, booked)</t>
   </si>
   <si>
@@ -711,9 +708,6 @@
     <t>I can register into the  Micro2Move app</t>
   </si>
   <si>
-    <t>If my registration details are invalid I must see respective error messages</t>
-  </si>
-  <si>
     <t>Auth</t>
   </si>
   <si>
@@ -791,6 +785,131 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">I can visit the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User Registrarion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I must be able to enter my </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Full Name (as displayed on my government Id), Birth date, Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I must be able to visit details </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Terms and Conditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> link and navigate back by clicking </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I must be able to check </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I accept Terms and Conditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> radio button</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">press the </t>
     </r>
     <r>
@@ -802,17 +921,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>New Use? Register Now</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> secondary button on the </t>
+      <t>Continue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button in the </t>
     </r>
     <r>
       <rPr>
@@ -823,22 +942,46 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Login </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I can visit the </t>
+      <t>User Registrarion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <t>User Story #</t>
+  </si>
+  <si>
+    <t>Reference Doc</t>
+  </si>
+  <si>
+    <t>Mockup</t>
+  </si>
+  <si>
+    <t>0010Splash.png</t>
+  </si>
+  <si>
+    <t>0020Landing.png</t>
+  </si>
+  <si>
+    <t>0031UserRegistration.png</t>
+  </si>
+  <si>
+    <t>0040RegTnC.png</t>
+  </si>
+  <si>
+    <t>0032UserRegImageUpload.png</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If my credentials are valid and I have started from the </t>
     </r>
     <r>
       <rPr>
@@ -849,22 +992,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>User Registrarion</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I must be able to enter my </t>
+      <t>List a Bike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button, I must be logged in into my account in Micro2Move app and subsequently landing on the </t>
     </r>
     <r>
       <rPr>
@@ -875,197 +1013,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Full Name (as displayed on my government Id), Birth date, Email</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I must be able to visit details </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Terms and Conditions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> link and navigate back by clicking </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I must be able to check </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I accept Terms and Conditions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> radio button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">press the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Continue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User Registrarion</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page</t>
-    </r>
-  </si>
-  <si>
-    <t>User Story #</t>
-  </si>
-  <si>
-    <t>Reference Doc</t>
-  </si>
-  <si>
-    <t>Mockup</t>
-  </si>
-  <si>
-    <t>0010Splash.png</t>
-  </si>
-  <si>
-    <t>0020Landing.png</t>
-  </si>
-  <si>
-    <t>0031UserRegistration.png</t>
-  </si>
-  <si>
-    <t>0040RegTnC.png</t>
-  </si>
-  <si>
-    <t>0032UserRegImageUpload.png</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If my credentials are valid and I have started from the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>List a Bike</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button, I must be logged in into my account in Micro2Move app and subsequently landing on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>My Bikes Listing</t>
     </r>
     <r>
@@ -1077,53 +1024,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (Bike Owner's Home) page (with a personalized welcome note on top)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">to press on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>List a New Bike</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button on</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> My Bikes Listing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Bike Owner's Home) page</t>
     </r>
   </si>
   <si>
@@ -1562,6 +1462,65 @@
     </r>
   </si>
   <si>
+    <t>Marketplace - Listing</t>
+  </si>
+  <si>
+    <t>0052OwnerBikesList.png</t>
+  </si>
+  <si>
+    <t>0032LoginErrors.png</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If my credentials are valid and I have started from the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rent a Bike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button, I must be logged in into my account in Micro2Move app and subsequently landing on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bike Booking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Bike Renter's Home) page (with a personalized welcome note on top)</t>
+    </r>
+  </si>
+  <si>
+    <t>0060RenterFilter.png</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">If my registration details are valid and I have started from the </t>
     </r>
@@ -1605,7 +1564,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Bike Owner's Home) page (with a personalized welcome note on top)</t>
+      <t xml:space="preserve"> (Bike Owner's Home) page (with a personalized welcome note on top), if I have already listed one or more e-Bikes</t>
     </r>
   </si>
   <si>
@@ -1621,6 +1580,56 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>List a Bike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button, I must be registered and logged in into Micro2Move app and subsequently landing on the (blank) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Owner List First Bike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page (with a personalized welcome note on top), if I have no e-Bikes already listed</t>
+    </r>
+  </si>
+  <si>
+    <t>0050OwnerListFirstBike.png</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If my registration details are valid and I have started from the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Rent a Bike</t>
     </r>
     <r>
@@ -1642,31 +1651,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>My Bike Bookings</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Bike Renter's Home) page (with a personalized welcome note on top)</t>
-    </r>
-  </si>
-  <si>
-    <t>Marketplace - Listing</t>
-  </si>
-  <si>
-    <t>0052OwnerBikesList.png</t>
-  </si>
-  <si>
-    <t>0032LoginErrors.png</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If my credentials are valid and I have started from the </t>
+      <t>Renter Filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Bike Renter's Home) page (with a personalized welcome note on top).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">press the </t>
     </r>
     <r>
       <rPr>
@@ -1677,17 +1677,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Rent a Bike</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button, I must be logged in into my account in Micro2Move app and subsequently landing on the </t>
+      <t>New User? Register Now</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> secondary button on the </t>
     </r>
     <r>
       <rPr>
@@ -1698,21 +1698,211 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bike Booking</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Bike Renter's Home) page (with a personalized welcome note on top)</t>
-    </r>
-  </si>
-  <si>
-    <t>0060RenterFilter.png</t>
+      <t xml:space="preserve">Login </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If my registration details are invalid I must see respective error messages on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Registration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> screen itself</t>
+    </r>
+  </si>
+  <si>
+    <t>0033UserRegError.png</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">to press on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List a New Bike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button on</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Owner Bikes List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Bike Owner's Home) page
+OR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">List Your E-Bikes with Micro2Move </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">button on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Owner List First Bike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can visit the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Owner List a Bike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I should be directed to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Owner List a Bike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page, with:</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2203,13 +2393,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I319"/>
+  <dimension ref="A1:I321"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2222,7 +2412,7 @@
     <col min="6" max="6" width="30.265625" style="1" customWidth="1"/>
     <col min="7" max="7" width="40.46484375" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.9296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.1328125" style="1" customWidth="1"/>
     <col min="10" max="10" width="19.3984375" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.1328125" style="1"/>
   </cols>
@@ -2235,7 +2425,7 @@
         <v>159</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>158</v>
@@ -2246,10 +2436,10 @@
         <v>2</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -2260,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>1</v>
@@ -2274,26 +2464,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C3" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
@@ -2303,20 +2493,20 @@
         <v>1.2</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
@@ -2326,20 +2516,20 @@
         <v>1.3</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
@@ -2349,20 +2539,20 @@
         <v>1.4</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="11" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
@@ -2373,11 +2563,11 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
@@ -2388,11 +2578,11 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="11" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
@@ -2402,20 +2592,20 @@
         <v>1.5</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
@@ -2426,11 +2616,11 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
@@ -2441,11 +2631,11 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
@@ -2456,11 +2646,11 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
@@ -2471,11 +2661,11 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
@@ -2486,48 +2676,52 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>229</v>
-      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="9" t="s">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="I15" s="11" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="C16" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="G16" s="9" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="I16" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="2" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -2535,63 +2729,67 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A18" s="12">
+      <c r="I17" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="2" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A19" s="12">
         <v>2</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="B19" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" s="12">
         <v>2.1</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D19" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="E19" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>278</v>
+      </c>
       <c r="G19" s="15" t="s">
-        <v>165</v>
+        <v>279</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+    <row r="20" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15" t="s">
-        <v>166</v>
-      </c>
+      <c r="F20" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2599,20 +2797,20 @@
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15" t="s">
-        <v>250</v>
+        <v>164</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="16" t="s">
-        <v>170</v>
+      <c r="G22" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
@@ -2624,8 +2822,8 @@
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="16" t="s">
-        <v>162</v>
+      <c r="G23" s="15" t="s">
+        <v>246</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
@@ -2635,14 +2833,10 @@
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>260</v>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
@@ -2653,16 +2847,14 @@
       <c r="C25" s="13"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>251</v>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
     </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -2671,102 +2863,103 @@
         <v>252</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
     </row>
-    <row r="27" spans="1:9" s="6" customFormat="1" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="15" t="s">
-        <v>257</v>
-      </c>
+      <c r="E27" s="15"/>
       <c r="F27" s="15" t="s">
         <v>255</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
     </row>
-    <row r="28" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
-        <v>173</v>
-      </c>
+    <row r="28" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" s="6" customFormat="1" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
     </row>
     <row r="30" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="C30" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="G30" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>178</v>
-      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I32" s="6"/>
+        <v>166</v>
+      </c>
     </row>
     <row r="33" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
@@ -2775,44 +2968,43 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="G33" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="C34" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="G34" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>183</v>
-      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2820,39 +3012,39 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="C37" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="G37" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>188</v>
-      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I38" s="6"/>
     </row>
@@ -2864,19 +3056,27 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="C40" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="G40" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I40" s="6"/>
     </row>
@@ -2888,7 +3088,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I41" s="6"/>
     </row>
@@ -2896,17 +3096,11 @@
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>194</v>
-      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I42" s="6"/>
     </row>
@@ -2917,20 +3111,26 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="4" t="s">
-        <v>196</v>
+      <c r="G43" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="4" t="s">
-        <v>197</v>
+      <c r="D44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="I44" s="6"/>
     </row>
@@ -2938,29 +3138,23 @@
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>200</v>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="3" t="s">
-        <v>201</v>
+      <c r="G46" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="I46" s="6"/>
     </row>
@@ -2968,11 +3162,17 @@
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="G47" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I47" s="6"/>
     </row>
@@ -2980,17 +3180,11 @@
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>204</v>
-      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I48" s="6"/>
     </row>
@@ -3002,7 +3196,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I49" s="6"/>
     </row>
@@ -3010,11 +3204,17 @@
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
+      <c r="D50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="G50" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I50" s="6"/>
     </row>
@@ -3022,21 +3222,15 @@
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>209</v>
-      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3044,7 +3238,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I52" s="6"/>
     </row>
@@ -3052,33 +3246,33 @@
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="G53" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>214</v>
-      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
       <c r="G54" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3086,7 +3280,7 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I55" s="6"/>
     </row>
@@ -3094,29 +3288,29 @@
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="G56" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>220</v>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="I57" s="6"/>
     </row>
@@ -3125,10 +3319,10 @@
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4" t="s">
-        <v>221</v>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="I58" s="6"/>
     </row>
@@ -3136,32 +3330,42 @@
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
+      <c r="D59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="G59" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
+    <row r="60" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
+    <row r="61" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4" t="s">
+        <v>221</v>
+      </c>
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3234,45 +3438,47 @@
       <c r="G68" s="6"/>
       <c r="I68" s="6"/>
     </row>
-    <row r="69" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A69" s="2">
-        <v>2</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>49</v>
-      </c>
+    <row r="69" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="6"/>
       <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A71" s="2">
+        <v>2</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="G71" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3281,7 +3487,7 @@
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3290,25 +3496,16 @@
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B74" s="6"/>
-      <c r="C74" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
       <c r="G74" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3317,16 +3514,25 @@
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
+      <c r="C76" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="G76" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3335,7 +3541,7 @@
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3344,43 +3550,43 @@
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B79" s="7"/>
-      <c r="C79" s="2">
+    <row r="81" spans="2:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B81" s="7"/>
+      <c r="C81" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D81" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E81" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F81" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="G81" s="7" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="82" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3389,7 +3595,7 @@
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3398,43 +3604,43 @@
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="84" spans="2:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B84" s="8"/>
-      <c r="C84" s="2">
+    <row r="86" spans="2:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B86" s="8"/>
+      <c r="C86" s="2">
         <v>2.4</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D86" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E86" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F86" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G86" s="8" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="87" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3443,52 +3649,52 @@
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="2:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B88" s="6"/>
-      <c r="C88" s="2">
+    <row r="90" spans="2:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B90" s="6"/>
+      <c r="C90" s="2">
         <v>2.5</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D90" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E90" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="F90" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G88" s="6" t="s">
+      <c r="G90" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="89" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3497,43 +3703,43 @@
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="2:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B93" s="8"/>
-      <c r="C93" s="2">
+    <row r="95" spans="2:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B95" s="8"/>
+      <c r="C95" s="2">
         <v>2.6</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D95" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E95" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F95" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G93" s="8" t="s">
+      <c r="G95" s="8" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="96" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3542,57 +3748,57 @@
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="2">
-        <v>3</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C98" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="B98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
       <c r="G98" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
+      <c r="A100" s="2">
+        <v>3</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="G100" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3601,52 +3807,52 @@
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B102" s="8"/>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B103" s="6"/>
-      <c r="C103" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
+      <c r="C105" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G105" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3655,7 +3861,7 @@
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3664,25 +3870,16 @@
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B108" s="6"/>
-      <c r="C108" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
       <c r="G108" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3691,16 +3888,25 @@
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
+      <c r="C110" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G110" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3709,7 +3915,7 @@
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3718,30 +3924,16 @@
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A113" s="2">
-        <v>4</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C113" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
       <c r="G113" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3750,16 +3942,30 @@
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A115" s="2">
+        <v>4</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G115" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3768,25 +3974,16 @@
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B117" s="6"/>
-      <c r="C117" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
       <c r="G117" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="118" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3795,16 +3992,25 @@
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
+      <c r="C119" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="G119" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3813,25 +4019,16 @@
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="121" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B121" s="6"/>
-      <c r="C121" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
       <c r="G121" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3840,270 +4037,279 @@
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
+      <c r="C123" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G123" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="125" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A125" s="2">
+    <row r="127" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A127" s="2">
         <v>5</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B127" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C127" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D127" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E127" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="F127" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="G127" s="2" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G126" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G127" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="128" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G128" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="129" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G129" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C130" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G130" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="131" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G131" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C132" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G132" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G133" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="134" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C134" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G134" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G135" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="136" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C136" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="G136" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="137" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G137" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="138" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C138" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="G138" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G139" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C140" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G141" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="140" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G140" s="2" t="s">
+    <row r="142" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G142" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="G141" s="2" t="s">
+    <row r="143" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="G143" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="142" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A142" s="2">
+    <row r="144" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A144" s="2">
         <v>6</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B144" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C144" s="2">
         <v>6.1</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D144" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E144" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F142" s="2" t="s">
+      <c r="F144" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G142" s="2" t="s">
+      <c r="G144" s="2" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G143" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G144" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="145" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G145" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C146" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G146" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="147" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G147" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C148" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G148" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="149" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G149" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G150" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G151" s="2" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B150" s="8"/>
-      <c r="C150" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F150" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G150" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B151" s="8"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="152" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B152" s="8"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="8"/>
-      <c r="F152" s="8"/>
+      <c r="C152" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="G152" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="153" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -4112,81 +4318,81 @@
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
       <c r="G153" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="154" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A154" s="2">
+    <row r="156" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A156" s="2">
         <v>7</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B156" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C156" s="2">
         <v>7.1</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D156" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="E156" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F154" s="2" t="s">
+      <c r="F156" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G154" s="2" t="s">
+      <c r="G156" s="2" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G155" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G156" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="157" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G157" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G158" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G159" s="2" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B158" s="8"/>
-      <c r="C158" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F158" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G158" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B159" s="8"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="160" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B160" s="8"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
+      <c r="C160" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="G160" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="161" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -4195,43 +4401,59 @@
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
       <c r="G161" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="162" spans="2:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C162" s="2">
+    <row r="164" spans="2:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C164" s="2">
         <v>7.3</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D164" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E164" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F162" s="2" t="s">
+      <c r="F164" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G162" s="2" t="s">
+      <c r="G164" s="2" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="163" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G163" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="164" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G164" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="165" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G165" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G166" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G167" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="166" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="167" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="168" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="169" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="170" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
@@ -4384,6 +4606,8 @@
     <row r="317" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="318" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="319" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="320" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="321" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:A2"/>
@@ -4406,8 +4630,12 @@
     <hyperlink ref="I7" r:id="rId9" display="..\RefDocs\0052OwnerBikesList.png"/>
     <hyperlink ref="I8" r:id="rId10" display="..\RefDocs\0032LoginErrors.png"/>
     <hyperlink ref="I6" r:id="rId11" display="..\RefDocs\0060RenterFilter.png"/>
+    <hyperlink ref="I16" r:id="rId12" display="..\RefDocs\0060RenterFilter.png"/>
+    <hyperlink ref="I17" r:id="rId13" display="..\RefDocs\0052OwnerBikesList.png"/>
+    <hyperlink ref="I18" r:id="rId14" display="..\RefDocs\0050OwnerListFirstBike.png"/>
+    <hyperlink ref="I15" r:id="rId15" display="..\RefDocs\0033UserRegError.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/BusinessAnalysis/ProductBacklog.xlsx
+++ b/BusinessAnalysis/ProductBacklog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="281">
   <si>
     <t>As a</t>
   </si>
@@ -523,9 +523,6 @@
   </si>
   <si>
     <t>I can update each of my bikes on the Micro2Move app</t>
-  </si>
-  <si>
-    <t>I can list my bike(s) or rent bike(s)</t>
   </si>
   <si>
     <t>For of each  my bike(s), I should be able to upload as many image(s) (classifying as Front, Back, Left, Right, other angles) with at least 1 image (as main image) mandatory.</t>
@@ -1247,36 +1244,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">I must see the splash screen (for 3.0seconds) with Micro2Move's Branding: 
-# </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Logo
-# Tagline
-# Brand Values
-# Carousel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of featured images</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">I must be able to view the landing page with Micro2Move branding:
 # </t>
     </r>
@@ -1903,6 +1870,31 @@
       </rPr>
       <t xml:space="preserve"> page, with:</t>
     </r>
+  </si>
+  <si>
+    <t>I can list or rent bike(s)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I must see the splash screen (for 3.0seconds) with Micro2Move's Branding: 
+# </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Logo + App Name (Micro2Move)
+# Tagline
+# Brand Values (Affordable Reliable Safe)</t>
+    </r>
+  </si>
+  <si>
+    <t>0030Login.png</t>
   </si>
 </sst>
 </file>
@@ -2396,10 +2388,10 @@
   <dimension ref="A1:I321"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2407,7 +2399,7 @@
     <col min="1" max="1" width="5.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.73046875" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.86328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.265625" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.265625" style="1" customWidth="1"/>
     <col min="7" max="7" width="40.46484375" style="1" customWidth="1"/>
@@ -2425,7 +2417,7 @@
         <v>159</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>158</v>
@@ -2436,10 +2428,10 @@
         <v>2</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -2450,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>1</v>
@@ -2459,31 +2451,31 @@
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C3" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>168</v>
+        <v>278</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
@@ -2493,43 +2485,43 @@
         <v>1.2</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>260</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>262</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="11" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9">
         <v>1.3</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E5" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="11" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
@@ -2539,20 +2531,20 @@
         <v>1.4</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
@@ -2563,11 +2555,11 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
@@ -2578,11 +2570,11 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
@@ -2592,20 +2584,20 @@
         <v>1.5</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F9" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>233</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
@@ -2616,11 +2608,11 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
@@ -2631,11 +2623,11 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
@@ -2646,11 +2638,11 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
@@ -2661,11 +2653,11 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
@@ -2676,11 +2668,11 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
@@ -2691,11 +2683,11 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
@@ -2705,20 +2697,20 @@
         <v>1.6</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>228</v>
-      </c>
       <c r="G16" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
@@ -2729,11 +2721,11 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
@@ -2744,11 +2736,11 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
@@ -2756,7 +2748,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C19" s="12">
         <v>2.1</v>
@@ -2765,13 +2757,13 @@
         <v>4</v>
       </c>
       <c r="E19" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="G19" s="15" t="s">
         <v>277</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>279</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
@@ -2823,7 +2815,7 @@
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
@@ -2836,7 +2828,7 @@
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
@@ -2860,13 +2852,13 @@
       <c r="C26" s="13"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
@@ -2878,10 +2870,10 @@
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
@@ -2892,13 +2884,13 @@
       <c r="C28" s="13"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="G28" s="15" t="s">
         <v>248</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>249</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
@@ -2909,13 +2901,13 @@
       <c r="C29" s="13"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" s="15" t="s">
         <v>253</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>254</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
@@ -2930,7 +2922,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>167</v>
@@ -2947,7 +2939,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
@@ -2969,7 +2961,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
@@ -2982,13 +2974,13 @@
         <v>7</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="I34" s="6"/>
     </row>
@@ -3000,7 +2992,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I35" s="6"/>
     </row>
@@ -3012,7 +3004,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I36" s="6"/>
     </row>
@@ -3026,13 +3018,13 @@
         <v>7</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="I37" s="6"/>
     </row>
@@ -3044,7 +3036,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I38" s="6"/>
     </row>
@@ -3056,7 +3048,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I39" s="6"/>
     </row>
@@ -3070,13 +3062,13 @@
         <v>7</v>
       </c>
       <c r="E40" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="I40" s="6"/>
     </row>
@@ -3088,7 +3080,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I41" s="6"/>
     </row>
@@ -3100,7 +3092,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I42" s="6"/>
     </row>
@@ -3112,7 +3104,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I43" s="6"/>
     </row>
@@ -3124,13 +3116,13 @@
         <v>7</v>
       </c>
       <c r="E44" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="I44" s="6"/>
     </row>
@@ -3142,7 +3134,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I45" s="6"/>
     </row>
@@ -3154,7 +3146,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I46" s="6"/>
     </row>
@@ -3166,13 +3158,13 @@
         <v>7</v>
       </c>
       <c r="E47" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="I47" s="6"/>
     </row>
@@ -3184,7 +3176,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I48" s="6"/>
     </row>
@@ -3196,7 +3188,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I49" s="6"/>
     </row>
@@ -3208,13 +3200,13 @@
         <v>7</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="I50" s="6"/>
     </row>
@@ -3226,7 +3218,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I51" s="6"/>
     </row>
@@ -3238,7 +3230,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I52" s="6"/>
     </row>
@@ -3250,13 +3242,13 @@
         <v>7</v>
       </c>
       <c r="E53" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="I53" s="6"/>
     </row>
@@ -3268,7 +3260,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I54" s="6"/>
     </row>
@@ -3280,7 +3272,7 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I55" s="6"/>
     </row>
@@ -3292,13 +3284,13 @@
         <v>7</v>
       </c>
       <c r="E56" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="I56" s="6"/>
     </row>
@@ -3310,7 +3302,7 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I57" s="6"/>
     </row>
@@ -3322,7 +3314,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I58" s="6"/>
     </row>
@@ -3334,13 +3326,13 @@
         <v>7</v>
       </c>
       <c r="E59" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="I59" s="6"/>
     </row>
@@ -3352,7 +3344,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I60" s="6"/>
     </row>
@@ -3364,7 +3356,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I61" s="6"/>
     </row>
@@ -4620,20 +4612,20 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" display="./RefDocs/0010Splash.png"/>
-    <hyperlink ref="I4" r:id="rId2" display="./RefDocs/0010Splash.png"/>
-    <hyperlink ref="I9" r:id="rId3"/>
-    <hyperlink ref="I11" r:id="rId4"/>
-    <hyperlink ref="I12" r:id="rId5"/>
-    <hyperlink ref="I10" r:id="rId6" display="..\RefDocs\0040RegTnC.png"/>
-    <hyperlink ref="I13" r:id="rId7" display="..\RefDocs\0032UserRegImageUpload.png"/>
-    <hyperlink ref="I14" r:id="rId8" display="..\RefDocs\0032UserRegImageUpload.png"/>
-    <hyperlink ref="I7" r:id="rId9" display="..\RefDocs\0052OwnerBikesList.png"/>
-    <hyperlink ref="I8" r:id="rId10" display="..\RefDocs\0032LoginErrors.png"/>
-    <hyperlink ref="I6" r:id="rId11" display="..\RefDocs\0060RenterFilter.png"/>
-    <hyperlink ref="I16" r:id="rId12" display="..\RefDocs\0060RenterFilter.png"/>
-    <hyperlink ref="I17" r:id="rId13" display="..\RefDocs\0052OwnerBikesList.png"/>
-    <hyperlink ref="I18" r:id="rId14" display="..\RefDocs\0050OwnerListFirstBike.png"/>
-    <hyperlink ref="I15" r:id="rId15" display="..\RefDocs\0033UserRegError.png"/>
+    <hyperlink ref="I9" r:id="rId2"/>
+    <hyperlink ref="I11" r:id="rId3"/>
+    <hyperlink ref="I12" r:id="rId4"/>
+    <hyperlink ref="I10" r:id="rId5" display="..\RefDocs\0040RegTnC.png"/>
+    <hyperlink ref="I13" r:id="rId6" display="..\RefDocs\0032UserRegImageUpload.png"/>
+    <hyperlink ref="I14" r:id="rId7" display="..\RefDocs\0032UserRegImageUpload.png"/>
+    <hyperlink ref="I7" r:id="rId8" display="..\RefDocs\0052OwnerBikesList.png"/>
+    <hyperlink ref="I8" r:id="rId9" display="..\RefDocs\0032LoginErrors.png"/>
+    <hyperlink ref="I6" r:id="rId10" display="..\RefDocs\0060RenterFilter.png"/>
+    <hyperlink ref="I16" r:id="rId11" display="..\RefDocs\0060RenterFilter.png"/>
+    <hyperlink ref="I17" r:id="rId12" display="..\RefDocs\0052OwnerBikesList.png"/>
+    <hyperlink ref="I18" r:id="rId13" display="..\RefDocs\0050OwnerListFirstBike.png"/>
+    <hyperlink ref="I15" r:id="rId14" display="..\RefDocs\0033UserRegError.png"/>
+    <hyperlink ref="I5" r:id="rId15" display="..\RefDocs\0030Login.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId16"/>

--- a/BusinessAnalysis/ProductBacklog.xlsx
+++ b/BusinessAnalysis/ProductBacklog.xlsx
@@ -1438,53 +1438,6 @@
     <t>0032LoginErrors.png</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">If my credentials are valid and I have started from the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rent a Bike</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button, I must be logged in into my account in Micro2Move app and subsequently landing on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bike Booking</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Bike Renter's Home) page (with a personalized welcome note on top)</t>
-    </r>
-  </si>
-  <si>
     <t>0060RenterFilter.png</t>
   </si>
   <si>
@@ -1895,6 +1848,53 @@
   </si>
   <si>
     <t>0030Login.png</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If my credentials are valid and I have started from the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rent a Bike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button, I must be logged in into my account in Micro2Move app and subsequently landing on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Renter Filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Bike Renter's Home) page (with a personalized welcome note on top)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2391,7 +2391,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2468,10 +2468,10 @@
         <v>257</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>278</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>279</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="11" t="s">
@@ -2521,10 +2521,10 @@
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="11" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9">
@@ -2540,11 +2540,11 @@
         <v>225</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
@@ -2587,7 +2587,7 @@
         <v>226</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>231</v>
@@ -2683,11 +2683,11 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
@@ -2706,11 +2706,11 @@
         <v>227</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
@@ -2721,7 +2721,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="11" t="s">
@@ -2736,11 +2736,11 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
@@ -2757,13 +2757,13 @@
         <v>4</v>
       </c>
       <c r="E19" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="G19" s="15" t="s">
         <v>276</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>277</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
@@ -3937,7 +3937,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="115" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A115" s="2">
         <v>4</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B123" s="6"/>
       <c r="C123" s="2">
         <v>4.3</v>
@@ -4152,7 +4152,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C136" s="2">
         <v>5.3</v>
       </c>

--- a/BusinessAnalysis/ProductBacklog.xlsx
+++ b/BusinessAnalysis/ProductBacklog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="295">
   <si>
     <t>As a</t>
   </si>
@@ -975,53 +975,6 @@
   </si>
   <si>
     <t>0032UserRegImageUpload.png</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If my credentials are valid and I have started from the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>List a Bike</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button, I must be logged in into my account in Micro2Move app and subsequently landing on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>My Bikes Listing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Bike Owner's Home) page (with a personalized welcome note on top)</t>
-    </r>
   </si>
   <si>
     <t>I must be able to "Save" partially finished bike info and edit the same later.</t>
@@ -1850,6 +1803,9 @@
     <t>0030Login.png</t>
   </si>
   <si>
+    <t>Marketplace - Renting</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">If my credentials are valid and I have started from the </t>
     </r>
@@ -1893,7 +1849,426 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Bike Renter's Home) page (with a personalized welcome note on top)</t>
+      <t xml:space="preserve"> (Bike Renter's Home) page (with a personalized welcome note on top) on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">My Rides </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bottom navigation tab</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If my credentials are valid and I have started from the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List a Bike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button, I must be logged in into my account in Micro2Move app and subsequently landing on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Owner Bikes List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Bike Owner's Home) page (with a personalized welcome note on top) on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>My Bikes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bottom navigation tab</t>
+    </r>
+  </si>
+  <si>
+    <t>logged-in owner/ renter</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I must be landing on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Renter Filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Bike Renter's Home) page (with a personalized welcome note on top) on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">My Rides </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bottom navigation tab</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">press the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rent a Bike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button on landing screen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">press the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List a Bike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button on landing screen</t>
+    </r>
+  </si>
+  <si>
+    <t>I can enter into the Micro2Move app as renter</t>
+  </si>
+  <si>
+    <t>I can enter into the Micro2Move app as owner</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I must be landing on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Owner Bikes List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Bike Owner's Home) page (with a personalized welcome note on top) on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>My Bikes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bottom navigation tab</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">press the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Explore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> link on landing screen</t>
+    </r>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can explore the Micro2Move app's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>explore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> features</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can explore the Micro2Move app's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>explore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> features without requirment of logging in</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I must be landing on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Explore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page (with a personalized welcome note on top) on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Explore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bottom navigation tab</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I must be landing on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Explore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page (with a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Welcome Guest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> note on top) without any bottom navigation tab</t>
     </r>
   </si>
 </sst>
@@ -1947,7 +2322,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2002,6 +2377,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCECFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2040,7 +2421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2096,6 +2477,15 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2105,6 +2495,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCECFF"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF800080"/>
@@ -2385,13 +2776,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I321"/>
+  <dimension ref="A1:I331"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2465,15 +2856,17 @@
         <v>221</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="11" t="s">
+        <v>239</v>
+      </c>
       <c r="I3" s="11" t="s">
         <v>239</v>
       </c>
@@ -2488,15 +2881,17 @@
         <v>221</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="11" t="s">
+        <v>240</v>
+      </c>
       <c r="I4" s="11" t="s">
         <v>240</v>
       </c>
@@ -2519,12 +2914,14 @@
       <c r="G5" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="11" t="s">
+        <v>278</v>
+      </c>
       <c r="I5" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9">
@@ -2534,7 +2931,7 @@
         <v>222</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>225</v>
@@ -2542,24 +2939,28 @@
       <c r="G6" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="11" t="s">
+        <v>265</v>
+      </c>
       <c r="I6" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="C7" s="9">
+        <v>1.5</v>
+      </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
@@ -2570,97 +2971,127 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="H9" s="9"/>
+        <v>283</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>265</v>
+      </c>
       <c r="I9" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="C10" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="G10" s="9" t="s">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="C11" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>291</v>
+      </c>
       <c r="G11" s="9" t="s">
-        <v>234</v>
+        <v>293</v>
       </c>
       <c r="H11" s="9"/>
-      <c r="I11" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="C12" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>292</v>
+      </c>
       <c r="G12" s="9" t="s">
-        <v>173</v>
+        <v>294</v>
       </c>
       <c r="H12" s="9"/>
-      <c r="I12" s="11" t="s">
-        <v>241</v>
-      </c>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="C13" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>231</v>
+      </c>
       <c r="G13" s="9" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -2668,14 +3099,14 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -2683,37 +3114,29 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="11" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>227</v>
-      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="9" t="s">
-        <v>270</v>
+        <v>173</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="2" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -2721,14 +3144,14 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -2736,343 +3159,344 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="2" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A19" s="12">
+      <c r="H20" s="9"/>
+      <c r="I20" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="2" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="19">
         <v>2</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" s="12">
+      <c r="B23" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C23" s="19">
         <v>2.1</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D23" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
+    </row>
+    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A29" s="12">
+        <v>2</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C29" s="12">
+        <v>2.1</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E29" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="F29" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="G29" s="15" t="s">
         <v>275</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-    </row>
-    <row r="21" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-    </row>
-    <row r="25" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-    </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-    </row>
-    <row r="27" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-    </row>
-    <row r="28" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="29" spans="1:9" s="6" customFormat="1" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>253</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3" t="s">
-        <v>171</v>
-      </c>
+    <row r="30" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
     </row>
     <row r="32" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
-        <v>166</v>
-      </c>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
     </row>
     <row r="33" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="I34" s="6"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+    </row>
+    <row r="34" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
     </row>
     <row r="35" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I36" s="6"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+    </row>
+    <row r="36" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
     </row>
     <row r="37" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+    </row>
+    <row r="38" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+    </row>
+    <row r="39" spans="1:9" s="6" customFormat="1" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+    </row>
+    <row r="40" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>7</v>
+        <v>1.7</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3080,11 +3504,10 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3092,9 +3515,8 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I42" s="6"/>
+        <v>166</v>
+      </c>
     </row>
     <row r="43" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
@@ -3103,26 +3525,27 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="G43" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="C44" s="3">
+        <v>1.8</v>
+      </c>
       <c r="D44" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="I44" s="6"/>
     </row>
@@ -3133,42 +3556,44 @@
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="4" t="s">
-        <v>194</v>
+      <c r="G45" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="4" t="s">
-        <v>195</v>
+      <c r="G46" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="C47" s="3">
+        <v>1.9</v>
+      </c>
       <c r="D47" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3176,7 +3601,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="I48" s="6"/>
     </row>
@@ -3188,25 +3613,27 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+      <c r="C50" s="3">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D50" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="I50" s="6"/>
     </row>
@@ -3218,7 +3645,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="I51" s="6"/>
     </row>
@@ -3230,7 +3657,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="I52" s="6"/>
     </row>
@@ -3238,29 +3665,29 @@
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>207</v>
-      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
+      <c r="D54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="G54" s="3" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="I54" s="6"/>
     </row>
@@ -3271,38 +3698,38 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="3" t="s">
-        <v>210</v>
+      <c r="G55" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>213</v>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
+      <c r="D57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="G57" s="3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="I57" s="6"/>
     </row>
@@ -3314,7 +3741,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="I58" s="6"/>
     </row>
@@ -3322,17 +3749,11 @@
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>218</v>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="I59" s="6"/>
     </row>
@@ -3340,11 +3761,17 @@
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4" t="s">
-        <v>219</v>
+      <c r="D60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="I60" s="6"/>
     </row>
@@ -3353,394 +3780,424 @@
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4" t="s">
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="I61" s="6"/>
-    </row>
-    <row r="62" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="I62" s="6"/>
-    </row>
-    <row r="63" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="I63" s="6"/>
-    </row>
-    <row r="64" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="I64" s="6"/>
-    </row>
-    <row r="65" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="I65" s="6"/>
-    </row>
-    <row r="66" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="I66" s="6"/>
-    </row>
-    <row r="67" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="I67" s="6"/>
-    </row>
-    <row r="68" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="I68" s="6"/>
-    </row>
-    <row r="69" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="I69" s="6"/>
-    </row>
-    <row r="70" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="I70" s="6"/>
-    </row>
-    <row r="71" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A71" s="2">
-        <v>2</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="6"/>
       <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="G72" s="6"/>
+      <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="6"/>
       <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="G73" s="6"/>
+      <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="6"/>
       <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="G74" s="6"/>
+      <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="6"/>
       <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="G75" s="6"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="6"/>
       <c r="B76" s="6"/>
-      <c r="C76" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="6"/>
       <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="G77" s="6"/>
+      <c r="I77" s="6"/>
     </row>
     <row r="78" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="6"/>
       <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="G78" s="6"/>
+      <c r="I78" s="6"/>
     </row>
     <row r="79" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="6"/>
       <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="G79" s="6"/>
+      <c r="I79" s="6"/>
     </row>
     <row r="80" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="6"/>
       <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="6" t="s">
+      <c r="G80" s="6"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A81" s="2">
+        <v>2</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B86" s="6"/>
+      <c r="C86" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="2:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B81" s="7"/>
-      <c r="C81" s="2">
+    <row r="91" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B91" s="7"/>
+      <c r="C91" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D91" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E91" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F91" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G81" s="7" t="s">
+      <c r="G91" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7" t="s">
+    <row r="92" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="83" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7" t="s">
+    <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7" t="s">
+    <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7" t="s">
+    <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="86" spans="2:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B86" s="8"/>
-      <c r="C86" s="2">
+    <row r="96" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B96" s="8"/>
+      <c r="C96" s="2">
         <v>2.4</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D96" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E96" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F96" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="G96" s="8" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B90" s="6"/>
-      <c r="C90" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B95" s="8"/>
-      <c r="C95" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3749,7 +4206,7 @@
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3758,206 +4215,201 @@
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B100" s="6"/>
+      <c r="C100" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B105" s="8"/>
+      <c r="C105" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="2">
+    <row r="110" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A110" s="2">
         <v>3</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B110" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C110" s="2">
         <v>3.1</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D110" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E110" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F100" s="8" t="s">
+      <c r="F110" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G100" s="8" t="s">
+      <c r="G110" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8" t="s">
+    <row r="111" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8" t="s">
+    <row r="112" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8" t="s">
+    <row r="113" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8" t="s">
+    <row r="114" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B105" s="6"/>
-      <c r="C105" s="2">
+    <row r="115" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B115" s="6"/>
+      <c r="C115" s="2">
         <v>3.2</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D115" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E115" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="6" t="s">
+      <c r="F115" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G105" s="6" t="s">
+      <c r="G115" s="6" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B110" s="6"/>
-      <c r="C110" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A115" s="2">
-        <v>4</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C115" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="116" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3966,7 +4418,7 @@
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3975,7 +4427,7 @@
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3984,34 +4436,34 @@
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B119" s="6"/>
-      <c r="C119" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F119" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
       <c r="G119" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
+      <c r="C120" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G120" s="6" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -4020,7 +4472,7 @@
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="122" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -4029,25 +4481,16 @@
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B123" s="6"/>
-      <c r="C123" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
       <c r="G123" s="6" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="124" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -4056,421 +4499,533 @@
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A125" s="2">
+        <v>4</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C125" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G125" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B126" s="6"/>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B129" s="6"/>
+      <c r="C129" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B133" s="6"/>
+      <c r="C133" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A127" s="2">
+    <row r="137" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A137" s="2">
         <v>5</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B137" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C137" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D137" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E137" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="F137" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="G137" s="2" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G128" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G129" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G130" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G131" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C132" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G133" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G134" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G135" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C136" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G137" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="138" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G138" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="139" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G139" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="140" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C140" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="G140" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="141" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G141" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C142" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G142" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G143" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A144" s="2">
-        <v>6</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C144" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G144" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="145" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G145" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C146" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="G146" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="147" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G147" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C148" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G148" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="149" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G149" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="150" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C150" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G150" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="151" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G151" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="152" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B152" s="8"/>
-      <c r="C152" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E152" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F152" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G152" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="8" t="s">
-        <v>143</v>
+      <c r="G152" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="G153" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A154" s="2">
+        <v>6</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C154" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="155" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A156" s="2">
-        <v>7</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C156" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="G155" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G156" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="157" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G157" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C158" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G158" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="159" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G159" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="160" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B160" s="8"/>
-      <c r="C160" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="D160" s="8" t="s">
+      <c r="G160" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G161" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B162" s="8"/>
+      <c r="C162" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="D162" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E160" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F160" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G160" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="161" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B161" s="8"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="162" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B162" s="8"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
+      <c r="E162" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="G162" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="163" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B163" s="8"/>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
       <c r="G163" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A166" s="2">
+        <v>7</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C166" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G167" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G168" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G169" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B170" s="8"/>
+      <c r="C170" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G170" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B172" s="8"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="8"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B173" s="8"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="8"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="164" spans="2:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C164" s="2">
+    <row r="174" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C174" s="2">
         <v>7.3</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D174" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="E174" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F164" s="2" t="s">
+      <c r="F174" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G164" s="2" t="s">
+      <c r="G174" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="165" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G165" s="2" t="s">
+    <row r="175" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G175" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="166" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G166" s="2" t="s">
+    <row r="176" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G176" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="167" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="G167" s="2" t="s">
+    <row r="177" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G177" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="168" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="169" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="170" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="171" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="172" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="173" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="174" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="175" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="176" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="177" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="178" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="179" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="180" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="181" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="182" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="183" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="184" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="185" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="186" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="187" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="188" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="189" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="190" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="191" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="192" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="178" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="179" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="180" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="181" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="182" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="183" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="184" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="185" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="186" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="187" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="188" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="189" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="190" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="191" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="192" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="193" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="194" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="195" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
@@ -4600,6 +5155,16 @@
     <row r="319" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="320" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="321" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="322" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="323" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="324" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="325" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="326" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="327" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="328" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="329" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="330" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="331" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:A2"/>
@@ -4612,22 +5177,29 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" display="./RefDocs/0010Splash.png"/>
-    <hyperlink ref="I9" r:id="rId2"/>
-    <hyperlink ref="I11" r:id="rId3"/>
-    <hyperlink ref="I12" r:id="rId4"/>
-    <hyperlink ref="I10" r:id="rId5" display="..\RefDocs\0040RegTnC.png"/>
-    <hyperlink ref="I13" r:id="rId6" display="..\RefDocs\0032UserRegImageUpload.png"/>
-    <hyperlink ref="I14" r:id="rId7" display="..\RefDocs\0032UserRegImageUpload.png"/>
+    <hyperlink ref="I13" r:id="rId2"/>
+    <hyperlink ref="I15" r:id="rId3"/>
+    <hyperlink ref="I16" r:id="rId4"/>
+    <hyperlink ref="I14" r:id="rId5" display="..\RefDocs\0040RegTnC.png"/>
+    <hyperlink ref="I17" r:id="rId6" display="..\RefDocs\0032UserRegImageUpload.png"/>
+    <hyperlink ref="I18" r:id="rId7" display="..\RefDocs\0032UserRegImageUpload.png"/>
     <hyperlink ref="I7" r:id="rId8" display="..\RefDocs\0052OwnerBikesList.png"/>
     <hyperlink ref="I8" r:id="rId9" display="..\RefDocs\0032LoginErrors.png"/>
     <hyperlink ref="I6" r:id="rId10" display="..\RefDocs\0060RenterFilter.png"/>
-    <hyperlink ref="I16" r:id="rId11" display="..\RefDocs\0060RenterFilter.png"/>
-    <hyperlink ref="I17" r:id="rId12" display="..\RefDocs\0052OwnerBikesList.png"/>
-    <hyperlink ref="I18" r:id="rId13" display="..\RefDocs\0050OwnerListFirstBike.png"/>
-    <hyperlink ref="I15" r:id="rId14" display="..\RefDocs\0033UserRegError.png"/>
+    <hyperlink ref="I20" r:id="rId11" display="..\RefDocs\0060RenterFilter.png"/>
+    <hyperlink ref="I21" r:id="rId12" display="..\RefDocs\0052OwnerBikesList.png"/>
+    <hyperlink ref="I22" r:id="rId13" display="..\RefDocs\0050OwnerListFirstBike.png"/>
+    <hyperlink ref="I19" r:id="rId14" display="..\RefDocs\0033UserRegError.png"/>
     <hyperlink ref="I5" r:id="rId15" display="..\RefDocs\0030Login.png"/>
+    <hyperlink ref="H3" r:id="rId16" display="Wireframes\0010Splash.png"/>
+    <hyperlink ref="H4" r:id="rId17" display="Wireframes\0020Landing.png"/>
+    <hyperlink ref="H5" r:id="rId18" display="Wireframes\0030Login.png"/>
+    <hyperlink ref="H6" r:id="rId19" display="Wireframes\0060RenterFilter.png"/>
+    <hyperlink ref="I9" r:id="rId20" display="..\RefDocs\0060RenterFilter.png"/>
+    <hyperlink ref="H9" r:id="rId21" display="Wireframes\0060RenterFilter.png"/>
+    <hyperlink ref="I10" r:id="rId22" display="..\RefDocs\0052OwnerBikesList.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/BusinessAnalysis/ProductBacklog.xlsx
+++ b/BusinessAnalysis/ProductBacklog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12458"/>
+    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12458"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="296">
   <si>
     <t>As a</t>
   </si>
@@ -2270,6 +2270,9 @@
       </rPr>
       <t xml:space="preserve"> note on top) without any bottom navigation tab</t>
     </r>
+  </si>
+  <si>
+    <t>0032UserRegistration.png</t>
   </si>
 </sst>
 </file>
@@ -2471,12 +2474,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2485,6 +2482,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2779,10 +2782,10 @@
   <dimension ref="A1:I331"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2801,34 +2804,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="20" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2838,9 +2841,9 @@
       <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="9">
@@ -2973,7 +2976,9 @@
       <c r="G8" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="11" t="s">
+        <v>264</v>
+      </c>
       <c r="I8" s="11" t="s">
         <v>264</v>
       </c>
@@ -3071,7 +3076,7 @@
     <row r="13" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>290</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -3086,7 +3091,9 @@
       <c r="G13" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="11" t="s">
+        <v>295</v>
+      </c>
       <c r="I13" s="11" t="s">
         <v>241</v>
       </c>
@@ -3101,7 +3108,9 @@
       <c r="G14" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="11" t="s">
+        <v>242</v>
+      </c>
       <c r="I14" s="11" t="s">
         <v>242</v>
       </c>
@@ -3116,7 +3125,9 @@
       <c r="G15" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="H15" s="9"/>
+      <c r="H15" s="11" t="s">
+        <v>241</v>
+      </c>
       <c r="I15" s="11" t="s">
         <v>241</v>
       </c>
@@ -3131,7 +3142,9 @@
       <c r="G16" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="11" t="s">
+        <v>241</v>
+      </c>
       <c r="I16" s="11" t="s">
         <v>241</v>
       </c>
@@ -3176,7 +3189,9 @@
       <c r="G19" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="I19" s="11" t="s">
         <v>272</v>
       </c>
@@ -3235,78 +3250,78 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>2</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="17">
         <v>2.1</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="20"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="20"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="20"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="18"/>
     </row>
     <row r="29" spans="1:9" s="2" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A29" s="12">
@@ -5198,8 +5213,14 @@
     <hyperlink ref="I9" r:id="rId20" display="..\RefDocs\0060RenterFilter.png"/>
     <hyperlink ref="H9" r:id="rId21" display="Wireframes\0060RenterFilter.png"/>
     <hyperlink ref="I10" r:id="rId22" display="..\RefDocs\0052OwnerBikesList.png"/>
+    <hyperlink ref="H13" r:id="rId23" display="0031UserRegistration.png"/>
+    <hyperlink ref="H19" r:id="rId24" display="Wireframes\0033UserRegError.png"/>
+    <hyperlink ref="H14" r:id="rId25" display="Wireframes\0040RegTnC.png"/>
+    <hyperlink ref="H15" r:id="rId26" display="Wireframes\0031UserRegistration.png"/>
+    <hyperlink ref="H16" r:id="rId27" display="Wireframes\0031UserRegistration.png"/>
+    <hyperlink ref="H8" r:id="rId28" display="Wireframes\0032LoginErrors.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/BusinessAnalysis/ProductBacklog.xlsx
+++ b/BusinessAnalysis/ProductBacklog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12458"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12458"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="292">
   <si>
     <t>As a</t>
   </si>
@@ -956,9 +956,6 @@
     <t>User Story #</t>
   </si>
   <si>
-    <t>Reference Doc</t>
-  </si>
-  <si>
     <t>Mockup</t>
   </si>
   <si>
@@ -972,9 +969,6 @@
   </si>
   <si>
     <t>0040RegTnC.png</t>
-  </si>
-  <si>
-    <t>0032UserRegImageUpload.png</t>
   </si>
   <si>
     <t>I must be able to "Save" partially finished bike info and edit the same later.</t>
@@ -1385,9 +1379,6 @@
     <t>Marketplace - Listing</t>
   </si>
   <si>
-    <t>0052OwnerBikesList.png</t>
-  </si>
-  <si>
     <t>0032LoginErrors.png</t>
   </si>
   <si>
@@ -1486,9 +1477,6 @@
       </rPr>
       <t xml:space="preserve"> page (with a personalized welcome note on top), if I have no e-Bikes already listed</t>
     </r>
-  </si>
-  <si>
-    <t>0050OwnerListFirstBike.png</t>
   </si>
   <si>
     <r>
@@ -2424,7 +2412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2475,9 +2463,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2779,13 +2764,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I331"/>
+  <dimension ref="A1:H331"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2798,40 +2783,36 @@
     <col min="6" max="6" width="30.265625" style="1" customWidth="1"/>
     <col min="7" max="7" width="40.46484375" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.1328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.3984375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1328125" style="1"/>
+    <col min="9" max="9" width="19.3984375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2841,11 +2822,10 @@
       <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -2859,22 +2839,19 @@
         <v>221</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9">
@@ -2884,22 +2861,19 @@
         <v>221</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>259</v>
-      </c>
       <c r="H4" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9">
@@ -2918,13 +2892,10 @@
         <v>230</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9">
@@ -2934,22 +2905,19 @@
         <v>222</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>225</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9">
@@ -2959,14 +2927,11 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H7" s="9"/>
-      <c r="I7" s="11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2974,85 +2939,75 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9">
         <v>1.6</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>286</v>
-      </c>
       <c r="G9" s="9" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9">
         <v>1.7</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H10" s="9"/>
-      <c r="I10" s="11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9">
         <v>1.8</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>293</v>
-      </c>
       <c r="H11" s="9"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9">
@@ -3062,28 +3017,27 @@
         <v>222</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H12" s="9"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="19" t="s">
-        <v>290</v>
+      <c r="C13" s="18" t="s">
+        <v>286</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>226</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>231</v>
@@ -3092,13 +3046,10 @@
         <v>232</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -3109,13 +3060,10 @@
         <v>233</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -3126,13 +3074,10 @@
         <v>234</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -3143,13 +3088,10 @@
         <v>173</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -3160,11 +3102,8 @@
         <v>223</v>
       </c>
       <c r="H17" s="9"/>
-      <c r="I17" s="11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -3175,11 +3114,8 @@
         <v>224</v>
       </c>
       <c r="H18" s="9"/>
-      <c r="I18" s="11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -3187,16 +3123,13 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9">
@@ -3212,14 +3145,11 @@
         <v>227</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H20" s="9"/>
-      <c r="I20" s="11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="2" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -3227,14 +3157,11 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H21" s="9"/>
-      <c r="I21" s="11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -3242,19 +3169,16 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H22" s="9"/>
-      <c r="I22" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="17">
         <v>2</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C23" s="17">
         <v>2.1</v>
@@ -3266,9 +3190,8 @@
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="18"/>
-    </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -3277,9 +3200,8 @@
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
-      <c r="I24" s="18"/>
-    </row>
-    <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -3288,9 +3210,8 @@
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="18"/>
-    </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -3299,9 +3220,8 @@
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
-      <c r="I26" s="18"/>
-    </row>
-    <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -3310,9 +3230,8 @@
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="18"/>
-    </row>
-    <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -3321,14 +3240,13 @@
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
-      <c r="I28" s="18"/>
-    </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:8" s="2" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A29" s="12">
         <v>2</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C29" s="12">
         <v>2.1</v>
@@ -3337,18 +3255,17 @@
         <v>4</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:8" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -3359,9 +3276,8 @@
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-    </row>
-    <row r="31" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:8" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -3372,9 +3288,8 @@
         <v>164</v>
       </c>
       <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:8" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -3385,9 +3300,8 @@
         <v>165</v>
       </c>
       <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-    </row>
-    <row r="33" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:8" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -3395,12 +3309,11 @@
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-    </row>
-    <row r="34" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:8" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -3411,9 +3324,8 @@
         <v>168</v>
       </c>
       <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-    </row>
-    <row r="35" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:8" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -3424,75 +3336,70 @@
         <v>162</v>
       </c>
       <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-    </row>
-    <row r="36" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="1:8" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-    </row>
-    <row r="37" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:8" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-    </row>
-    <row r="38" spans="1:9" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="1:8" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F38" s="15" t="s">
-        <v>248</v>
-      </c>
       <c r="G38" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-    </row>
-    <row r="39" spans="1:9" s="6" customFormat="1" ht="128.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="1:8" s="6" customFormat="1" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-    </row>
-    <row r="40" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="1:8" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3">
@@ -3511,7 +3418,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3522,7 +3429,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3533,7 +3440,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3544,7 +3451,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3">
@@ -3562,9 +3469,8 @@
       <c r="G44" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="45" spans="1:8" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3574,9 +3480,8 @@
       <c r="G45" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="46" spans="1:8" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3586,9 +3491,8 @@
       <c r="G46" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="47" spans="1:8" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3">
@@ -3606,9 +3510,8 @@
       <c r="G47" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3618,9 +3521,8 @@
       <c r="G48" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="49" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -3630,9 +3532,8 @@
       <c r="G49" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="50" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3">
@@ -3650,9 +3551,8 @@
       <c r="G50" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="51" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -3662,9 +3562,8 @@
       <c r="G51" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="52" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3674,9 +3573,8 @@
       <c r="G52" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="53" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -3686,9 +3584,8 @@
       <c r="G53" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="54" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -3704,9 +3601,8 @@
       <c r="G54" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="55" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3716,9 +3612,8 @@
       <c r="G55" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3728,9 +3623,8 @@
       <c r="G56" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="57" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3746,9 +3640,8 @@
       <c r="G57" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="58" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -3758,9 +3651,8 @@
       <c r="G58" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="59" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -3770,9 +3662,8 @@
       <c r="G59" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="I59" s="6"/>
-    </row>
-    <row r="60" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="60" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -3788,9 +3679,8 @@
       <c r="G60" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="I60" s="6"/>
-    </row>
-    <row r="61" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="61" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -3800,9 +3690,8 @@
       <c r="G61" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="I61" s="6"/>
-    </row>
-    <row r="62" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="62" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3812,9 +3701,8 @@
       <c r="G62" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="I62" s="6"/>
-    </row>
-    <row r="63" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="63" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3830,9 +3718,8 @@
       <c r="G63" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="I63" s="6"/>
-    </row>
-    <row r="64" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="64" spans="1:7" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -3842,9 +3729,8 @@
       <c r="G64" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="I64" s="6"/>
-    </row>
-    <row r="65" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="65" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -3854,9 +3740,8 @@
       <c r="G65" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="I65" s="6"/>
-    </row>
-    <row r="66" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="66" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -3872,9 +3757,8 @@
       <c r="G66" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="I66" s="6"/>
-    </row>
-    <row r="67" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="67" spans="1:7" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3884,9 +3768,8 @@
       <c r="G67" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="I67" s="6"/>
-    </row>
-    <row r="68" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="68" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3896,9 +3779,8 @@
       <c r="G68" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="I68" s="6"/>
-    </row>
-    <row r="69" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="69" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3914,9 +3796,8 @@
       <c r="G69" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="I69" s="6"/>
-    </row>
-    <row r="70" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="70" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3926,9 +3807,8 @@
       <c r="G70" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="I70" s="6"/>
-    </row>
-    <row r="71" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="71" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -3938,9 +3818,8 @@
       <c r="G71" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="I71" s="6"/>
-    </row>
-    <row r="72" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -3948,9 +3827,8 @@
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
-      <c r="I72" s="6"/>
-    </row>
-    <row r="73" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -3958,9 +3836,8 @@
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
-      <c r="I73" s="6"/>
-    </row>
-    <row r="74" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -3968,9 +3845,8 @@
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
-      <c r="I74" s="6"/>
-    </row>
-    <row r="75" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -3978,9 +3854,8 @@
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
-      <c r="I75" s="6"/>
-    </row>
-    <row r="76" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -3988,9 +3863,8 @@
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
-      <c r="I76" s="6"/>
-    </row>
-    <row r="77" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="77" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -3998,9 +3872,8 @@
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
-      <c r="I77" s="6"/>
-    </row>
-    <row r="78" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -4008,9 +3881,8 @@
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
-      <c r="I78" s="6"/>
-    </row>
-    <row r="79" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -4018,9 +3890,8 @@
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
-      <c r="I79" s="6"/>
-    </row>
-    <row r="80" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -4028,7 +3899,6 @@
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
-      <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A81" s="2">
@@ -5181,46 +5051,28 @@
     <row r="330" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="331" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" display="./RefDocs/0010Splash.png"/>
-    <hyperlink ref="I13" r:id="rId2"/>
-    <hyperlink ref="I15" r:id="rId3"/>
-    <hyperlink ref="I16" r:id="rId4"/>
-    <hyperlink ref="I14" r:id="rId5" display="..\RefDocs\0040RegTnC.png"/>
-    <hyperlink ref="I17" r:id="rId6" display="..\RefDocs\0032UserRegImageUpload.png"/>
-    <hyperlink ref="I18" r:id="rId7" display="..\RefDocs\0032UserRegImageUpload.png"/>
-    <hyperlink ref="I7" r:id="rId8" display="..\RefDocs\0052OwnerBikesList.png"/>
-    <hyperlink ref="I8" r:id="rId9" display="..\RefDocs\0032LoginErrors.png"/>
-    <hyperlink ref="I6" r:id="rId10" display="..\RefDocs\0060RenterFilter.png"/>
-    <hyperlink ref="I20" r:id="rId11" display="..\RefDocs\0060RenterFilter.png"/>
-    <hyperlink ref="I21" r:id="rId12" display="..\RefDocs\0052OwnerBikesList.png"/>
-    <hyperlink ref="I22" r:id="rId13" display="..\RefDocs\0050OwnerListFirstBike.png"/>
-    <hyperlink ref="I19" r:id="rId14" display="..\RefDocs\0033UserRegError.png"/>
-    <hyperlink ref="I5" r:id="rId15" display="..\RefDocs\0030Login.png"/>
-    <hyperlink ref="H3" r:id="rId16" display="Wireframes\0010Splash.png"/>
-    <hyperlink ref="H4" r:id="rId17" display="Wireframes\0020Landing.png"/>
-    <hyperlink ref="H5" r:id="rId18" display="Wireframes\0030Login.png"/>
-    <hyperlink ref="H6" r:id="rId19" display="Wireframes\0060RenterFilter.png"/>
-    <hyperlink ref="I9" r:id="rId20" display="..\RefDocs\0060RenterFilter.png"/>
-    <hyperlink ref="H9" r:id="rId21" display="Wireframes\0060RenterFilter.png"/>
-    <hyperlink ref="I10" r:id="rId22" display="..\RefDocs\0052OwnerBikesList.png"/>
-    <hyperlink ref="H13" r:id="rId23" display="0031UserRegistration.png"/>
-    <hyperlink ref="H19" r:id="rId24" display="Wireframes\0033UserRegError.png"/>
-    <hyperlink ref="H14" r:id="rId25" display="Wireframes\0040RegTnC.png"/>
-    <hyperlink ref="H15" r:id="rId26" display="Wireframes\0031UserRegistration.png"/>
-    <hyperlink ref="H16" r:id="rId27" display="Wireframes\0031UserRegistration.png"/>
-    <hyperlink ref="H8" r:id="rId28" display="Wireframes\0032LoginErrors.png"/>
+    <hyperlink ref="H3" r:id="rId1" display="Wireframes\0010Splash.png"/>
+    <hyperlink ref="H4" r:id="rId2" display="Wireframes\0020Landing.png"/>
+    <hyperlink ref="H5" r:id="rId3" display="Wireframes\0030Login.png"/>
+    <hyperlink ref="H6" r:id="rId4" display="Wireframes\0060RenterFilter.png"/>
+    <hyperlink ref="H9" r:id="rId5" display="Wireframes\0060RenterFilter.png"/>
+    <hyperlink ref="H13" r:id="rId6" display="0031UserRegistration.png"/>
+    <hyperlink ref="H19" r:id="rId7" display="Wireframes\0033UserRegError.png"/>
+    <hyperlink ref="H14" r:id="rId8" display="Wireframes\0040RegTnC.png"/>
+    <hyperlink ref="H15" r:id="rId9" display="Wireframes\0031UserRegistration.png"/>
+    <hyperlink ref="H16" r:id="rId10" display="Wireframes\0031UserRegistration.png"/>
+    <hyperlink ref="H8" r:id="rId11" display="Wireframes\0032LoginErrors.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>